--- a/data/xlsx/HubDemo.xlsx
+++ b/data/xlsx/HubDemo.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1069,6 +1069,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Demo_GodStart</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ScriptStartGod</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TUTID_神竜の章</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CanStartGod</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>G_拠点_神竜の章初回</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/HubDemo.xlsx
+++ b/data/xlsx/HubDemo.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1072,23 +1072,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Demo_GodStart</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>Demo_RefleshPool</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>可以“放松身心”了。</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ScriptStartGod</t>
+          <t>HubCameraDemo14</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TUTID_神竜の章</t>
+          <t>TUTID_リフレッシュ</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CanStartGod</t>
+          <t>M007</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1096,14 +1100,136 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>G_拠点_神竜の章初回</t>
+          <t>G_拠点_リフレッシュ初回</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Demo_RefleshHorse</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>可以“放松身心”了。</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>HubCameraDemo15</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TUTID_リフレッシュ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>G_拠点_リフレッシュ初回</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Demo_RefleshFruit</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>可以“放松身心”了。</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>HubCameraDemo16</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TUTID_リフレッシュ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>G_拠点_リフレッシュ初回</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Demo_GodStart</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ScriptStartGod</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TUTID_神竜の章</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CanStartGod</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>G_拠点_神竜の章初回</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
